--- a/Ganadería/17.42.xlsx
+++ b/Ganadería/17.42.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BCN\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Ganadería\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4275BCA4-E627-487E-96BD-C58D79169F4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8B8A90-1B0B-41BB-A468-17371056EC3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C3FE0F7F-E924-4772-AF9D-39E50E23893D}"/>
   </bookViews>
@@ -1351,10 +1351,10 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1373,7 +1373,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40F6E3E3-53D6-4046-864A-9125C2129A06}" name="Importaciones_subproductos_bovinos_por_tipo_origen_toneladas_2020" displayName="Importaciones_subproductos_bovinos_por_tipo_origen_toneladas_2020" ref="A1:G16" totalsRowShown="0">
   <autoFilter ref="A1:G16" xr:uid="{743E61F4-83A4-4D08-9D8A-DA400C522AFC}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{9E9AED5B-14F6-44BB-BB2A-EC8D85ACC77C}" name="Cod_pais" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{9E9AED5B-14F6-44BB-BB2A-EC8D85ACC77C}" name="Cod_pais" dataDxfId="1">
       <calculatedColumnFormula>VLOOKUP(Importaciones_subproductos_bovinos_por_tipo_origen_toneladas_2020[[#This Row],[Pais]],CODIGO_PAIS[],2,0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{E1F683B6-1B46-4478-8CC0-7B7EA285AB22}" name="Pais"/>
@@ -1381,7 +1381,7 @@
     <tableColumn id="4" xr3:uid="{E5ED3DFE-2D5D-4A8E-B3F1-BCCCDC4D1923}" name="producto"/>
     <tableColumn id="5" xr3:uid="{E5CC7640-D3C9-423E-8869-0404FC8BA0CE}" name="Id_categoria"/>
     <tableColumn id="6" xr3:uid="{F365BAD4-67B0-4A84-8201-08A8CA0D5C23}" name="categoria"/>
-    <tableColumn id="7" xr3:uid="{58B06C50-07B9-41D8-8F55-B6C717CC99B1}" name="Toneladas" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{58B06C50-07B9-41D8-8F55-B6C717CC99B1}" name="Toneladas" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1698,7 +1698,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E2" sqref="E2:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1748,7 +1748,7 @@
         <v>11</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F2" t="s">
         <v>422</v>
@@ -1772,7 +1772,7 @@
         <v>11</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F3" t="s">
         <v>422</v>
@@ -1796,7 +1796,7 @@
         <v>11</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F4" t="s">
         <v>422</v>
@@ -1820,7 +1820,7 @@
         <v>11</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F5" t="s">
         <v>420</v>
@@ -1844,7 +1844,7 @@
         <v>11</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F6" t="s">
         <v>420</v>
@@ -1868,7 +1868,7 @@
         <v>11</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F7" t="s">
         <v>420</v>
@@ -1892,7 +1892,7 @@
         <v>11</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F8" t="s">
         <v>421</v>
@@ -1916,7 +1916,7 @@
         <v>11</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F9" t="s">
         <v>421</v>
@@ -1940,7 +1940,7 @@
         <v>11</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F10" t="s">
         <v>421</v>
@@ -1964,7 +1964,7 @@
         <v>11</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F11" t="s">
         <v>421</v>
@@ -1988,7 +1988,7 @@
         <v>11</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F12" t="s">
         <v>421</v>
@@ -2012,7 +2012,7 @@
         <v>11</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F13" t="s">
         <v>421</v>
@@ -2036,7 +2036,7 @@
         <v>11</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F14" t="s">
         <v>421</v>
@@ -2060,7 +2060,7 @@
         <v>11</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F15" t="s">
         <v>421</v>
@@ -2084,7 +2084,7 @@
         <v>11</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F16" t="s">
         <v>421</v>
